--- a/ingredientList.xlsx
+++ b/ingredientList.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>No.</t>
   </si>
@@ -35,46 +35,13 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Egg</t>
-  </si>
-  <si>
-    <t>Pc.</t>
+    <t>Worcestershire sauce</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
   <si>
     <t>Active</t>
-  </si>
-  <si>
-    <t>Mustard</t>
-  </si>
-  <si>
-    <t>Bundle</t>
-  </si>
-  <si>
-    <t>Worcestershire sauce</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>Onion</t>
-  </si>
-  <si>
-    <t>Garlic</t>
-  </si>
-  <si>
-    <t>Pepper</t>
-  </si>
-  <si>
-    <t>Grams</t>
-  </si>
-  <si>
-    <t>Burger Patty</t>
-  </si>
-  <si>
-    <t>Bun</t>
-  </si>
-  <si>
-    <t>Tomatoe</t>
   </si>
 </sst>
 </file>
@@ -450,10 +417,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:F10"/>
+      <selection activeCell="A1" sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -461,7 +428,7 @@
     <col min="1" max="1" width="6.856" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="26.993" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.426" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="6.856" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="10.426" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -494,175 +461,15 @@
         <v>6</v>
       </c>
       <c r="C2" s="2">
-        <v>691612061</v>
+        <v>373212800</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="2">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2">
-        <v>513929753</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2">
-        <v>100</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2">
-        <v>373212800</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2">
-        <v>250</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2">
-        <v>192859387</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2">
-        <v>5</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2">
-        <v>36036587</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2">
-        <v>474699746</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2">
-        <v>50</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2">
-        <v>673661604</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="2">
-        <v>20</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2">
-        <v>979277640</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2">
-        <v>5</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2">
-        <v>519384877</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="2">
-        <v>4</v>
-      </c>
-      <c r="F10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
